--- a/discapacidad/Descripcion Ordenanzas.xlsx
+++ b/discapacidad/Descripcion Ordenanzas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandro/Documents/GitHub/digesto/discapacidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F308B8-9EA1-9C40-BE9D-F96448B71088}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68817EC3-E93F-A346-9BD7-ACEE420F91DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="10000" windowHeight="15000" xr2:uid="{A7E21F37-B10D-9944-8BEF-0F5B634D61C0}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="21700" windowHeight="15000" xr2:uid="{A7E21F37-B10D-9944-8BEF-0F5B634D61C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Crease el Concejo Municipal para la Integracion de la Persona Discapacitada</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Justificativo</t>
+  </si>
+  <si>
+    <t>derogada</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -554,6 +557,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
@@ -819,6 +825,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D27">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>